--- a/data/financial_statements/socf/C.xlsx
+++ b/data/financial_statements/socf/C.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1826 +587,1829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-12400000000</v>
+      </c>
+      <c r="C2">
         <v>3509000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4568000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4323000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3179000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4668000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6203000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7975000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4331000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3170000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1056000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2530000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4995000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4928000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4809000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4735000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4297000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4625000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4516000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4642000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-18874000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4132000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3904000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4100000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3525000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3857000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4024000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3506000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3360000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4296000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4864000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4812000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>382000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2900000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>231000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3989000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2492000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3278000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4218000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3898000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1065000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1074000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1550000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>985000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1035000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>982000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>962000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1051000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1033000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>926000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>927000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1039000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>983000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>952000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>931000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>954000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>945000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>929000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>926000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>942000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>920000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>901000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>896000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1006000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>938000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>868000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>908000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>874000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>865000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>882000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>885000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1488000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>934000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>896000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>843000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>388000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1430000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>818000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>807000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>80000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1461000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>847000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-385000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1762000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1226000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-2468000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2646000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2064000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7425000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6581000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1064000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1725000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1608000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1799000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1875000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1665000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1667000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1646000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>26847000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1371000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1412000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1512000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2985000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1505000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1305000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1740000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1906000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1531000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1351000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1504000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>4186000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1489000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1504000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1784000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>4354000000</v>
-      </c>
-      <c r="AL4">
-        <v>1588000000</v>
       </c>
       <c r="AM4">
         <v>1588000000</v>
       </c>
       <c r="AN4">
+        <v>1588000000</v>
+      </c>
+      <c r="AO4">
         <v>2063000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-1005000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1281000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3223000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-741000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>146000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-4775000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1561000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-86000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2488000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>193000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-1393000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-1196000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-742000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-410000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1439000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-610000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1527000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-1774000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1627000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-1722000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2484000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-2464000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1949000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2645000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2172000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-2110000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3896000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-6393000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1055000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1012000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-2881000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>845000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-135000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-2299000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>445000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1700000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6004000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-684000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-2699000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-1385000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9493000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>457000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-6809000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>32593000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-14718000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>25495000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-5845000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>11814000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-12059000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-44774000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>14964000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-712000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-20447000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-38340000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-1985000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12311000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2603000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2737000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-7015000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2190000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-22075000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4487000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>17576000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3754000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2144000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-5157000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>8521000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1937000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>17643000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-2795000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-4200000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>13856000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-13266000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>23026000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-7492000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>13874000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>4547000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>17285000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-3727000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>15502000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-12171000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4961000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7511000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-3788000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2572000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3604000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-11406000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8731000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-4449000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>852000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-6479000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3052000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-11341000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-777000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>912000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1040000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-1787000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-4797000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>6342000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-719000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-12541000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-3513000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-2835000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>8543000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-6549000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>154000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>11579000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-9132000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-1490000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>4639000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-7057000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3874000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>555000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-1899000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-8728000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1900000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>7385000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>562000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-23104000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-11773000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>874000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-12093000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>17687000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-7755000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1224000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-12209000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>53000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15045000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>803000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2695000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>10296000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3161000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3132000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-238000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-7618000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-2835000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-694000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>713000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>480000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-3455000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1175000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-2124000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>6831000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1118000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-10049000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1755000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-367000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2058000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2975000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-1922000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>5425000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-1044000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>4392000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-3202000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>7657000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-3718000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-901000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10275000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-13544000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2064000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>35622000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>365000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>23198000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1633000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-3046000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6325000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-25533000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>22521000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2398000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-140000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-37616000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6886000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>21747000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1363000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>6956000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-5313000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>18152000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-18561000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-3052000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>25399000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>7267000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>21605000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-538000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-1627000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>23018000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>16253000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2093000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>10315000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>10065000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-3635000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>29598000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>3935000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>14244000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>20044000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>25021000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-1187000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1220000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1214000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-1261000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-925000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-923000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-820000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-1121000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-969000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-848000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-458000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-799000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-997000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-2801000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-480000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-1054000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-961000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-679000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-868000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-774000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-778000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-779000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-653000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-464000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-638000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-515000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-472000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-620000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-858000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-538000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-605000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-749000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-38000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-1210000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-766000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-880000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-714000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-586000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-594000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>1302000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1940000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>12120000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-34046000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-28649000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-14335000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-31595000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>10915000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-4578000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>8056000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-23852000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>25738000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-7339000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2896000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-5807000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>14979000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>10749000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>17203000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-2015000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>3654000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-14631000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-14801000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-41093000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-6075000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>29250000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-24451000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-48793000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-14154000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-9582000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-50377000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-2369000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-6211000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-52926000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-46270000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>213000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-2265000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-12168000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>15315000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-3192000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-14141000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-4023000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-24242000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>20599000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-20603000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4574000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>5762000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-10437000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-2549000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-8525000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-9321000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>9793000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-4753000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-4907000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>3917000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-1424000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-7045000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2770000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-8885000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-4014000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>861000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-7330000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>9865000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>10319000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-4702000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-8858000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-5766000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9770000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-12337000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>10263000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-8622000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15669000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>34942000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-26129000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-10696000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-3213000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-6691000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1208000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-12309000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-4832000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>197000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-7014000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-15116000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-10121000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-18878000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-1984000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>8008000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-6338000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-19339000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-3545000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-3003000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4537000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-13658000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>10090000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3897000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>11701000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-10855000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>270000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-11531000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-8889000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-4211000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3556000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>16479000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-8778000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-34523000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-12836000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-33958000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-37177000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-40934000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-12112000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8489000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-18832000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-72857000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-11282000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-17390000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-10745000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>16043000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-16555000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-19934000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-4505000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-32124000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4709000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-31502000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-15083000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3125000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>17481000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-14103000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-20323000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-37190000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>31908000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-8413000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-16207000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>7595000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>16703000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>15367000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>7908000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-11396000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-12771000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-23373000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-26928000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-28266000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>18854000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>23146000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>27987000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-21390000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-16540000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8557000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15300000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-20649000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-19308000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-11069000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>81733000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-13060000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-4443000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-1682000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>28564000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-2875000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-5219000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>9991000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>10011000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>5764000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>14278000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>33586000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1553000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-4786000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>8958000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-4028000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>13149000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-33873000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-10819000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-6944000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-20786000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-7987000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-53000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-3219000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-12001000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-7874000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-6368000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1887000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-4759000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-50000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-367000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-2833000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-153000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-3067000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-2900000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-1481000000</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2301,824 +2418,824 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>-2925000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-5076000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-4977000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-3463000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-4055000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-4585000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-5162000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-2308000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-2378000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-5470000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-5436000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-1777000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-1858000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-4123000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-2533000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-1322000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-1312000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-1652000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-1950000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-1553000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-297000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-380000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-186000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-302000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-364000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-218000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-437000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-182000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18">
         <v>1000000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-2285000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>800000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1495000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-1500000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1496000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-480000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-575000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-121000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-97000000</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>1494000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1004000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1496000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1245000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1992000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1494000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1493000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1739000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>467000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1417000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>950000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1156000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>575000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-1263000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1228000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-1286000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1239000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-1296000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1307000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-1356000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-1328000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-1345000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1314000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-1365000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1399000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-1398000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-1330000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-1320000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-1404000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-1384000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-1137000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-1095000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-1158000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1135000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-760000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-744000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-770000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-689000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-469000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-359000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-415000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-324000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-355000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-159000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-190000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-159000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-130000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-154000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-100000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-140000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-40000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-34000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-16418000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-9460000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>34486000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-28812000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>44155000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9294000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>19992000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18045000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>28962000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>48748000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>113915000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-17183000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>42161000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>15250000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>16828000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>7991000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>8442000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-4489000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>40922000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-4219000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>5294000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>8749000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>20187000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-7974000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>2399000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3257000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>26396000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>3641000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-3796000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>8386000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-104000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-22721000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-23071000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-544000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-2508000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>12812000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>17030000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4661000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>2758000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>1123000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>12091000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>58354000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-50594000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>23252000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>11359000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>33255000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-2437000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8309000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>36365000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>191358000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-38218000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>32839000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>8775000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>39537000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-1448000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-3323000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1936000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>47363000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-5083000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>13001000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>39798000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>19138000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-17653000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>8135000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-1068000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>38878000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-30803000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-15644000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1526000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-19852000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-29785000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-23469000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-2456000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-14560000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>6037000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>11035000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>7482000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-1460000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-1124000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-1645000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-233000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-409000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-346000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-452000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1164000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>170000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-5000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-967000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>455000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-647000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-540000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-176000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-64000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-106000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-596000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-7000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>94000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>376000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-117000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>340000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-349000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-20000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-314000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>190000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-304000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-648000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-39000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-64000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-1101000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-1255000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>71000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-147000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-126000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-246000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-590000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-596000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL23">
         <v>0</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>5000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-13000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-2000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>15577000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11943000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>10054000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-61775000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>24570000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-25444000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>15067000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-14080000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>13922000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>23853000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>92001000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-26524000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>17200000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-2650000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>17788000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-11181000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-1616000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-1802000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>22188000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-5593000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>27000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>6037000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>19551000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>24878000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1279000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-100000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1340000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-826000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-1687000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1533000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-10228000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-3868000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>708000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1888000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>3495000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-2925000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1665000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-5000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-5303000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>262033000000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3127,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>309615000000</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3139,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>193919000000</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3151,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>188105000000</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3163,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>180516000000</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3175,22 +3292,22 @@
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>160494000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>112197000000</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>20900000000</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -3199,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>32108000000</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3211,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>29885000000</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3223,860 +3340,869 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>36453000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>15577000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>11943000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>272087000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-61775000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>24570000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-25444000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>324682000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-14080000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>13922000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>23853000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>285920000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-26524000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>17200000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-2650000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>205893000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-11181000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-1616000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-1802000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>202704000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-5593000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>27000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>6037000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>180045000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>137075000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1279000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-100000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>22240000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-826000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-1687000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1533000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>21880000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-3868000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>708000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1888000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>33380000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-2925000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1665000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-5000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>31150000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3777000000</v>
+      </c>
+      <c r="C27">
         <v>-1263000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-1228000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-1286000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-1239000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-1296000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-1307000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1356000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1328000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1345000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1314000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-1365000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-1399000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-1398000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-1330000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-1320000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-1404000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-1384000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-1137000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-1095000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-1158000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-1135000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-760000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-744000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-770000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-689000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-469000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-359000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-415000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-324000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-355000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-159000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-190000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-159000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-130000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-154000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-100000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-140000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-40000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-34000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>-6.1965</v>
+        <v>-5.8546</v>
       </c>
       <c r="C28">
-        <v>-5.4585</v>
+        <v>-6.2351</v>
       </c>
       <c r="D28">
-        <v>-4.595</v>
+        <v>-5.491</v>
       </c>
       <c r="E28">
-        <v>-3.6205</v>
+        <v>-4.6244</v>
       </c>
       <c r="F28">
-        <v>-3.576</v>
+        <v>-3.3711</v>
       </c>
       <c r="G28">
+        <v>-3.5236</v>
+      </c>
+      <c r="H28">
         <v>-3.1264</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-3.2537</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-3.5728</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-4.843</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-3.9422</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-1.6722</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-2.6302</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-3.56</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-3.201</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-3.4079</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-3.7204</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-2.8169</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-2.8978</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-2.8335</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-2.1383</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-2.3476</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-2.4814</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-2.7768</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-2.4862</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-3.2815</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-3.5852</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-3.6567</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-2.5262</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-2.9951</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-2.7484</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-3.117</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-2.9046</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-3.1307</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-3.5218</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-3.619</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-3.2917</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-3.7317</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-3.6669</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-3.897</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-6117000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>26276000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-8491000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-2589000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>40250000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-23281000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>24484000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-2327000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2896000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-3135000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-50616000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>14620000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-7933000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-17805000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-48242000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-3372000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>14750000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1869000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2577000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-13534000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>11016000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-25258000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-6105000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>16708000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3091000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>8577000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-7810000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>2282000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>14571000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>9523000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-7166000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1284000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>6664000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-11691000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>24026000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-7691000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>11150000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>5763000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>21971000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>6045000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-4796000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-24451000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-5809000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-42803000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-23917000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-50377000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-2369000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-6211000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-52926000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-46270000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>213000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-13180000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-1253000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>15315000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-3192000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-14141000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-4023000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-24242000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>20599000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-20603000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>4574000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>5762000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>9937000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-7127000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-469000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-33173000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>35531000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-12092000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-2011000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-1890000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>13555000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3704000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>19973000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-10900000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-360000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-13770000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-22131000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-31228000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-50000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-367000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-2833000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>847000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-3067000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-5185000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-681000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1495000000</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>-2925000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-6576000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-3481000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-3463000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-4535000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-5160000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-5162000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-2429000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-2475000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-5470000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-5436000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-1777000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-1858000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-4123000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-2533000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>172000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-308000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-156000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-705000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>439000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1197000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1113000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-186000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1437000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>103000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1199000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>513000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>974000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>575000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-50000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-367000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-2833000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>847000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-3067000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-5185000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-681000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1495000000</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>-2925000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-6576000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-3481000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-3463000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-4535000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-5160000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-5162000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-2429000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-2475000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-5470000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-5436000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-1777000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-1858000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-4123000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-2533000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>172000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-308000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-156000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-705000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>439000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1197000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1113000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-186000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1437000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>103000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1199000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>513000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>974000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>575000000</v>
       </c>
     </row>
